--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Reference</t>
   </si>
@@ -105,9 +105,6 @@
     <t>130p</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>5p</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>9p</t>
   </si>
   <si>
-    <t>L5</t>
-  </si>
-  <si>
     <t>560n</t>
   </si>
   <si>
@@ -138,12 +132,6 @@
     <t>C12</t>
   </si>
   <si>
-    <t>82p</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -178,10 +166,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C6,C8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>C10,C13,C14</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -242,10 +226,6 @@
     <t>https://www.minicircuits.com/pdfs/PSA4-5043+.pdf</t>
   </si>
   <si>
-    <t>MLF2012DR33KT000</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>TDK Corporation</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -254,36 +234,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>shielded FIXED IND 330nH 250mA 400mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_commercial_standard_mlf2012_en.pdf</t>
-  </si>
-  <si>
-    <t>0805</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0805</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CE201210-27NJ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Bourns Inc.</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>FIXED IND 27nH 300mA 550mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.bourns.com/docs/Product-Datasheets/CE201210.pdf</t>
-  </si>
-  <si>
     <t>1008</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -296,10 +246,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>FIXED IND 8.2uH 1.1A 410mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>http://www.murata.com/~/media/webrenewal/products/inductor/chip/tokoproducts/wirewoundmetalalloychiptype/m_dfe252012f.ashx</t>
   </si>
   <si>
@@ -314,19 +260,226 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>FIXED IND 3.3uH 525mA 230mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Todo: change</t>
-    <phoneticPr fontId="18"/>
+    <t>L5,L7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_commercial_standard_mlj1608_en.pdf</t>
+  </si>
+  <si>
+    <t>MLJ1608WR56JT000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yuden.co.jp/productdata/catalog/en/mlci04_e.pdf</t>
+  </si>
+  <si>
+    <t>HK160827NJ-T</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FIXED IND 27nH 300mA 450mOhm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MLJ1608WR33JT000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND 330nH 500mA 312mOhm (230MHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND 560nH 400mA 520mOhm (170MHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MLF1608DR10JTD25</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND 100nH 200mA 350mOhm (450MHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_automotive_standard_mlf1608_en.pdf</t>
+  </si>
+  <si>
+    <t>TMK107B7105KA-T</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 1uF 25V X7R 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://ds.yuden.co.jp/TYCOMPAS/ut/detail.do?productNo=TMK107B7105KA-T&amp;fileName=TMK107B7105KA-T_SS&amp;mode=specSheetDownload</t>
+  </si>
+  <si>
+    <t>C6,C7,C8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM188R71H104JA93D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 0.1uF 50V X7R 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R71H104JA93-01.pdf</t>
+  </si>
+  <si>
+    <t>GRM1885C1H270FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 27pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/partnumbering_e_01.pdf</t>
+  </si>
+  <si>
+    <t>GRM1885C1H120FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 12pF 50V C0G/NP3 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H131JA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 130pF 50V C0G/NP3 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H9R0DA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 9pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H680FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 68pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>100p</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H101JA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 100pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>680</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H5R0BA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER 5pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RC0603FR-07680RL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Yageo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RES SMD 680 ohm 1% 1/10W 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Yageo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RES SMD 10k ohm 1% 1/10W 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://cdn.harwin.com/pdfs/Harwin_Product_Catalog_page_207.pdf</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND 3.3uH 525mA 230mOhm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND 8.2uH 1.1A 410mOhm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LP5907QMFX-3.8Q1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC REG LDO 3.8V 0.25A SOT23-5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/lp5907-q1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +648,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -836,7 +998,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,8 +1125,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,8 +1145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1009,6 +1177,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1301,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1312,10 +1481,10 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1333,46 +1502,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,18 +1552,20 @@
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1405,14 +1576,24 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1422,21 +1603,20 @@
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1448,22 +1628,22 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1475,22 +1655,22 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1502,26 +1682,24 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1531,283 +1709,382 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>680</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="D22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="fm_bpf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="129">
   <si>
     <t>Reference</t>
   </si>
@@ -473,6 +473,14 @@
   </si>
   <si>
     <t>http://www.ti.com/lit/ds/symlink/lp5907-q1.pdf</t>
+  </si>
+  <si>
+    <t>MMM1362</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Edge Connector</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1473,7 +1481,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1537,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>52</v>
@@ -1602,6 +1610,9 @@
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>61</v>

--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="10056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="fm_bpf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
   <si>
     <t>Reference</t>
   </si>
@@ -480,6 +480,34 @@
   </si>
   <si>
     <t>Edge Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compatible parts can be used?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1137,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1182,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1493,10 +1524,11 @@
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1522,10 +1554,13 @@
         <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1549,10 +1584,13 @@
         <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1575,9 +1613,12 @@
       <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1602,9 +1643,12 @@
       <c r="H4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1629,9 +1673,12 @@
       <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1656,9 +1703,12 @@
       <c r="H6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1683,9 +1733,12 @@
       <c r="H7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1710,9 +1763,12 @@
       <c r="H8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1737,9 +1793,12 @@
       <c r="H9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -1764,9 +1823,12 @@
       <c r="H10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1791,9 +1853,12 @@
       <c r="H11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1818,9 +1883,12 @@
       <c r="H12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -1845,9 +1913,12 @@
       <c r="H13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1872,9 +1943,12 @@
       <c r="H14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1899,9 +1973,12 @@
       <c r="H15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1926,9 +2003,12 @@
       <c r="H16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1953,9 +2033,12 @@
       <c r="H17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1980,9 +2063,12 @@
       <c r="H18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2007,9 +2093,12 @@
       <c r="H19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -2034,9 +2123,12 @@
       <c r="H20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2061,9 +2153,12 @@
       <c r="H21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2088,7 +2183,10 @@
       <c r="H22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9912"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21264" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="fm_bpf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t>Reference</t>
   </si>
@@ -505,6 +505,34 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>W1,W2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TEST_1P</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PTH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf</t>
+  </si>
+  <si>
+    <t>68000-401HLF</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>BERGSTIK II .100" SR STRAIGHT</t>
   </si>
   <si>
     <t>Y</t>
@@ -515,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +721,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1165,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,6 +1221,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2188,6 +2236,34 @@
       </c>
       <c r="J22" s="3"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>

--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>Reference</t>
   </si>
@@ -36,39 +36,21 @@
     <t>SMA</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>LP5907_SOT-23</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
     <t>L3</t>
   </si>
   <si>
-    <t>8.2u</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
-    <t>3.3u</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -78,57 +60,27 @@
     <t>C2</t>
   </si>
   <si>
-    <t>27p</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>12p</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>330n</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
-    <t>27n</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>130p</t>
-  </si>
-  <si>
-    <t>5p</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
-    <t>9p</t>
-  </si>
-  <si>
-    <t>560n</t>
-  </si>
-  <si>
     <t>L6</t>
   </si>
   <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
-    <t>68p</t>
-  </si>
-  <si>
     <t>C12</t>
   </si>
   <si>
@@ -154,10 +106,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Note</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CN1,CN2</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -170,372 +118,419 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://belfuse.com/resources/Johnson/productinformation/pi-142-0701-881.pdf</t>
+  </si>
+  <si>
+    <t>142-0701-801</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Cinch Connectivity Solutions Johnson</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PSA4-5043+</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mini-Circuits</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ML AMPL / SURF MOUNT / RoHS</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.minicircuits.com/pdfs/PSA4-5043+.pdf</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SMA JACK STR 50ohm EDGE MNT</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DFE252012F-8R2M=P2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.murata.com/~/media/webrenewal/products/inductor/chip/tokoproducts/wirewoundmetalalloychiptype/m_dfe252012f.ashx</t>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/TDK%20PDFs/GLFR%20Series.pdf</t>
+  </si>
+  <si>
+    <t>GLFR1608T3R3M-LR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L5,L7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_commercial_standard_mlj1608_en.pdf</t>
+  </si>
+  <si>
+    <t>MLJ1608WR56JT000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yuden.co.jp/productdata/catalog/en/mlci04_e.pdf</t>
+  </si>
+  <si>
+    <t>HK160827NJ-T</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MLJ1608WR33JT000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MLF1608DR10JTD25</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_automotive_standard_mlf1608_en.pdf</t>
+  </si>
+  <si>
+    <t>TMK107B7105KA-T</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://ds.yuden.co.jp/TYCOMPAS/ut/detail.do?productNo=TMK107B7105KA-T&amp;fileName=TMK107B7105KA-T_SS&amp;mode=specSheetDownload</t>
+  </si>
+  <si>
+    <t>C6,C7,C8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM188R71H104JA93D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R71H104JA93-01.pdf</t>
+  </si>
+  <si>
+    <t>GRM1885C1H270FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/partnumbering_e_01.pdf</t>
+  </si>
+  <si>
+    <t>GRM1885C1H120FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H131JA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H9R0DA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H680FA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H101JA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>680</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GRM1885C1H5R0BA01D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RC0603FR-07680RL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Yageo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RES SMD 680 ohm 1% 1/10W 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Yageo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RES SMD 10k ohm 1% 1/10W 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LP5907QMFX-3.8Q1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC REG LDO 3.8V 0.25A SOT23-5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/lp5907-q1.pdf</t>
+  </si>
+  <si>
+    <t>MMM1362</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Edge Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compatible parts can be used?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>W1,W2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TEST_1P</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>PTH</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://belfuse.com/resources/Johnson/productinformation/pi-142-0701-881.pdf</t>
-  </si>
-  <si>
-    <t>142-0701-801</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Cinch Connectivity Solutions Johnson</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Soldering on the bottom side is not necessary</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>M20-9980245</t>
-  </si>
-  <si>
-    <t>Harwin Inc.</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DIL VERTICAL PC TAIL PIN HEADER</t>
-  </si>
-  <si>
-    <t>PSA4-5043+</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Mini-Circuits</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ML AMPL / SURF MOUNT / RoHS</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.minicircuits.com/pdfs/PSA4-5043+.pdf</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SMA JACK STR 50ohm EDGE MNT</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1008</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DFE252012F-8R2M=P2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata Electronics North America</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.murata.com/~/media/webrenewal/products/inductor/chip/tokoproducts/wirewoundmetalalloychiptype/m_dfe252012f.ashx</t>
-  </si>
-  <si>
-    <t>0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/TDK%20PDFs/GLFR%20Series.pdf</t>
-  </si>
-  <si>
-    <t>GLFR1608T3R3M-LR</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>L5,L7</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata Electronics North America</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_commercial_standard_mlj1608_en.pdf</t>
-  </si>
-  <si>
-    <t>MLJ1608WR56JT000</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.yuden.co.jp/productdata/catalog/en/mlci04_e.pdf</t>
-  </si>
-  <si>
-    <t>HK160827NJ-T</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>FIXED IND 27nH 300mA 450mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>MLJ1608WR33JT000</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>shielded FIXED IND 330nH 500mA 312mOhm (230MHz)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>shielded FIXED IND 560nH 400mA 520mOhm (170MHz)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>MLF1608DR10JTD25</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>shielded FIXED IND 100nH 200mA 350mOhm (450MHz)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://product.tdk.com/info/en/catalog/datasheets/inductor_automotive_standard_mlf1608_en.pdf</t>
-  </si>
-  <si>
-    <t>TMK107B7105KA-T</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 1uF 25V X7R 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://ds.yuden.co.jp/TYCOMPAS/ut/detail.do?productNo=TMK107B7105KA-T&amp;fileName=TMK107B7105KA-T_SS&amp;mode=specSheetDownload</t>
-  </si>
-  <si>
-    <t>C6,C7,C8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM188R71H104JA93D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 0.1uF 50V X7R 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R71H104JA93-01.pdf</t>
-  </si>
-  <si>
-    <t>GRM1885C1H270FA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 27pF 50V C0G/NP0 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://search.murata.co.jp/Ceramy/image/img/A01X/partnumbering_e_01.pdf</t>
-  </si>
-  <si>
-    <t>GRM1885C1H120FA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 12pF 50V C0G/NP3 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM1885C1H131JA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 130pF 50V C0G/NP3 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM1885C1H9R0DA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 9pF 50V C0G/NP0 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM1885C1H680FA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 68pF 50V C0G/NP0 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>100p</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM1885C1H101JA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 100pF 50V C0G/NP0 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>680</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GRM1885C1H5R0BA01D</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CAP CER 5pF 50V C0G/NP0 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RC0603FR-07680RL</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Yageo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RES SMD 680 ohm 1% 1/10W 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Yageo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RES SMD 10k ohm 1% 1/10W 0603</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_7.pdf</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://cdn.harwin.com/pdfs/Harwin_Product_Catalog_page_207.pdf</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>shielded FIXED IND 3.3uH 525mA 230mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>shielded FIXED IND 8.2uH 1.1A 410mOhm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LP5907QMFX-3.8Q1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>IC REG LDO 3.8V 0.25A SOT23-5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/lp5907-q1.pdf</t>
-  </si>
-  <si>
-    <t>MMM1362</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Edge Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Compatible parts can be used?</t>
-    <phoneticPr fontId="18"/>
+    <t>http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf</t>
+  </si>
+  <si>
+    <t>68000-401HLF</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>BERGSTIK II .100" SR STRAIGHT</t>
   </si>
   <si>
     <t>Y</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Edge</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>W1,W2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TEST_1P</t>
+    <t>330nH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>27nH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>8.2uH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3.3uH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>560nH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>100nH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>27pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>12pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>130pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>9pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>68pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>100pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5pF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±5% 130pF 50V C0G/NP3 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±1% 12pF 50V C0G/NP3 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±1% 27pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±5% 0.1uF 50V X7R 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±10% 1uF 25V X7R 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±0.5pF 9pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±1% 68pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±0.1pF 5pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CAP CER ±5% 100pF 50V C0G/NP0 0603</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND ±5% 100nH 200mA 350mOhm (450MHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND ±5% 560nH 400mA 520mOhm (170MHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND ±20% 3.3uH 525mA 230mOhm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND ±20% 8.2uH 1.1A 410mOhm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FIXED IND ±5% 27nH 300mA 450mOhm (1.4GHz)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shielded FIXED IND ±5% 330nH 500mA 312mOhm (230MHz)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>PTH</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf</t>
-  </si>
-  <si>
-    <t>68000-401HLF</t>
-  </si>
-  <si>
-    <t>Amphenol FCI</t>
-  </si>
-  <si>
-    <t>BERGSTIK II .100" SR STRAIGHT</t>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1557,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1571,12 +1566,11 @@
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1590,684 +1584,634 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="I10" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="H22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1"/>
+    <hyperlink ref="D21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Sch/fm_bpf/fm_bpf.xlsx
+++ b/Sch/fm_bpf/fm_bpf.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21264" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="fm_bpf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="141">
   <si>
     <t>Reference</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>PTH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>total components</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SMD</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1552,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
@@ -1564,13 +1576,13 @@
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1587,19 +1599,22 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1615,20 +1630,23 @@
       <c r="E2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1644,20 +1662,23 @@
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1673,20 +1694,23 @@
       <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1702,20 +1726,23 @@
       <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1731,20 +1758,23 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1760,20 +1790,23 @@
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1789,20 +1822,23 @@
       <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1818,20 +1854,23 @@
       <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1847,20 +1886,23 @@
       <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1876,20 +1918,23 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
@@ -1905,20 +1950,23 @@
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1934,20 +1982,23 @@
       <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1963,20 +2014,23 @@
       <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1992,20 +2046,23 @@
       <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2021,20 +2078,23 @@
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2050,20 +2110,23 @@
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2079,20 +2142,23 @@
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -2108,20 +2174,23 @@
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2137,20 +2206,23 @@
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2166,20 +2238,23 @@
       <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>97</v>
       </c>
@@ -2195,17 +2270,38 @@
       <c r="E22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F2:F22)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25">
+        <f>F24-F22-F2</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
